--- a/localized/en-us/games/books/bookdata/en_344/en_344.xlsx
+++ b/localized/en-us/games/books/bookdata/en_344/en_344.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunpah/Documents/Books/en/en_344/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_344\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24935FF2-CE0C-EF49-8A80-F21BE2977431}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FF748-7BA6-4B86-9D1E-14C447B5DC96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="7580" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Amana Clinic</t>
-  </si>
-  <si>
-    <t>Amana Clinic is on our street.</t>
-  </si>
-  <si>
     <t>This clinic has a table for signing up.</t>
   </si>
   <si>
@@ -49,13 +43,19 @@
   </si>
   <si>
     <t>This clinic has an injection room.</t>
-  </si>
-  <si>
-    <t>I like Amana Clinic.</t>
   </si>
   <si>
     <t>This clinic has a doctor’s room.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divya Clinic</t>
+  </si>
+  <si>
+    <t>Divya Clinic is on our street.</t>
+  </si>
+  <si>
+    <t>I like Divya Clinic.</t>
   </si>
 </sst>
 </file>
@@ -66,14 +66,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,13 +81,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -407,54 +407,54 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
